--- a/data/CreatureGatherer Stat Sheet.xlsx
+++ b/data/CreatureGatherer Stat Sheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="205">
   <si>
     <t>Stat curve</t>
   </si>
@@ -132,7 +132,7 @@
     <t>evelevel</t>
   </si>
   <si>
-    <t>1tk</t>
+    <t>atk</t>
   </si>
   <si>
     <t>def</t>
@@ -168,6 +168,12 @@
     <t>SquibbleSnail</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>phys</t>
+  </si>
+  <si>
     <t>Zoombat - A fast-flying bat-like creature that can quickly escape danger.</t>
   </si>
   <si>
@@ -186,6 +192,9 @@
     <t>SkitterCrab</t>
   </si>
   <si>
+    <t>physphys</t>
+  </si>
+  <si>
     <t>Wriggleworm - A small, wriggling worm that can be difficult to catch.</t>
   </si>
   <si>
@@ -198,6 +207,9 @@
     <t>ShatterCrab</t>
   </si>
   <si>
+    <t>spc</t>
+  </si>
+  <si>
     <t>Hurdlehedge - A small hedgehog-like creature that can hurdle over obstacles with ease.</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>hedge</t>
   </si>
   <si>
+    <t>phs</t>
+  </si>
+  <si>
     <t>cloud</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>skimray</t>
   </si>
   <si>
+    <t>splt</t>
+  </si>
+  <si>
     <t>billow</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>zap</t>
   </si>
   <si>
+    <t>SPC</t>
+  </si>
+  <si>
     <t>suculent</t>
   </si>
   <si>
@@ -288,10 +309,148 @@
     <t>skull</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>ardu</t>
+  </si>
+  <si>
+    <t>0-15</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>smite</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>wisper</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>splash</t>
+  </si>
+  <si>
+    <t>squirt</t>
+  </si>
+  <si>
+    <t>soak</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>breeze</t>
+  </si>
+  <si>
+    <t>bellow</t>
+  </si>
+  <si>
+    <t>torrent</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>dirtbeam</t>
+  </si>
+  <si>
+    <t>slipfall</t>
+  </si>
+  <si>
+    <t>dirtfall</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>melt</t>
+  </si>
+  <si>
+    <t>torch</t>
+  </si>
+  <si>
+    <t>stoke</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>coil</t>
+  </si>
+  <si>
+    <t>pollen</t>
+  </si>
+  <si>
+    <t>pollenbeam</t>
+  </si>
+  <si>
+    <t>seedfall</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>elderBeam</t>
+  </si>
+  <si>
+    <t>slam</t>
+  </si>
+  <si>
+    <t>elderSlam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Encounter Tables</t>
+  </si>
+  <si>
+    <t>AreaId</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
   </si>
   <si>
     <t>Type 1</t>
@@ -495,7 +654,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +701,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
@@ -635,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -678,16 +843,22 @@
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -699,10 +870,10 @@
     <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -714,25 +885,25 @@
     <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="20" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -744,20 +915,23 @@
     <xf borderId="0" fillId="22" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="21" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="23" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="22" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="23" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
       <font/>
       <fill>
@@ -928,6 +1102,26 @@
       </fill>
       <border/>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9FC5E8"/>
+          <bgColor rgb="FF9FC5E8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
 </styleSheet>
 </file>
@@ -3529,6 +3723,38 @@
         <f>15*6</f>
         <v>90</v>
       </c>
+      <c r="D48">
+        <f t="shared" ref="D48:K48" si="33">SUM(D39:D46)</f>
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="33"/>
+        <v>11.5</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="33"/>
+        <v>8.5</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="33"/>
+        <v>8.5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="33"/>
+        <v>6.5</v>
+      </c>
       <c r="V48" s="5" t="s">
         <v>26</v>
       </c>
@@ -3610,8 +3836,8 @@
     </row>
     <row r="52">
       <c r="A52">
-        <f t="shared" ref="A52:A82" si="33">Sum(H52:M52)</f>
-        <v>18</v>
+        <f t="shared" ref="A52:A83" si="34">Sum(H52:M52)</f>
+        <v>16</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>50</v>
@@ -3622,6 +3848,9 @@
       <c r="E52" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F52" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G52" s="13">
         <v>8.0</v>
       </c>
@@ -3632,10 +3861,10 @@
         <v>3.0</v>
       </c>
       <c r="J52" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K52" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L52" s="2">
         <v>3.0</v>
@@ -3643,17 +3872,32 @@
       <c r="M52" s="2">
         <v>3.0</v>
       </c>
+      <c r="N52" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="O52" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="P52" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>32.0</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="V52" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D53" s="2">
         <v>1.0</v>
@@ -3661,6 +3905,9 @@
       <c r="E53" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F53" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G53" s="13">
         <v>16.0</v>
       </c>
@@ -3671,10 +3918,10 @@
         <v>8.0</v>
       </c>
       <c r="J53" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K53" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="L53" s="2">
         <v>8.0</v>
@@ -3682,17 +3929,32 @@
       <c r="M53" s="2">
         <v>8.0</v>
       </c>
+      <c r="N53" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="O53" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="P53" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="V53" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2">
         <v>2.0</v>
@@ -3713,10 +3975,10 @@
         <v>12.0</v>
       </c>
       <c r="J54" s="2">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="K54" s="2">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="L54" s="2">
         <v>12.0</v>
@@ -3724,17 +3986,32 @@
       <c r="M54" s="2">
         <v>12.0</v>
       </c>
+      <c r="N54" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="O54" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="P54" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="V54" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <f t="shared" si="33"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>16</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D55" s="2">
         <v>3.0</v>
@@ -3742,38 +4019,56 @@
       <c r="E55" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F55" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G55" s="13">
         <v>8.0</v>
       </c>
       <c r="H55" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I55" s="2">
         <v>3.0</v>
       </c>
       <c r="J55" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K55" s="2">
         <v>3.0</v>
       </c>
       <c r="L55" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M55" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N55" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="O55" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="P55" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>46</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2">
         <v>4.0</v>
@@ -3781,38 +4076,56 @@
       <c r="E56" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F56" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G56" s="13">
         <v>16.0</v>
       </c>
       <c r="H56" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="I56" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="J56" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K56" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L56" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M56" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="N56" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="O56" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="P56" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2">
         <v>5.0</v>
@@ -3827,34 +4140,49 @@
         <v>24.0</v>
       </c>
       <c r="H57" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="N57" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="O57" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="P57" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="Q57" s="13">
         <v>12.0</v>
       </c>
-      <c r="I57" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="J57" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L57" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M57" s="2">
-        <v>12.0</v>
+      <c r="R57" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <f t="shared" si="33"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>16</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D58" s="2">
         <v>6.0</v>
@@ -3862,14 +4190,17 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F58" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G58" s="13">
         <v>8.0</v>
       </c>
       <c r="H58" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I58" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J58" s="2">
         <v>3.0</v>
@@ -3883,17 +4214,32 @@
       <c r="M58" s="2">
         <v>3.0</v>
       </c>
+      <c r="N58" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O58" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="P58" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="V58" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>46</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2">
         <v>7.0</v>
@@ -3901,14 +4247,17 @@
       <c r="E59" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F59" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G59" s="13">
         <v>16.0</v>
       </c>
       <c r="H59" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="I59" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="J59" s="2">
         <v>8.0</v>
@@ -3922,17 +4271,32 @@
       <c r="M59" s="2">
         <v>8.0</v>
       </c>
+      <c r="N59" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O59" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="P59" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="V59" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D60" s="2">
         <v>8.0</v>
@@ -3947,10 +4311,10 @@
         <v>24.0</v>
       </c>
       <c r="H60" s="2">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="I60" s="2">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="J60" s="2">
         <v>12.0</v>
@@ -3964,17 +4328,32 @@
       <c r="M60" s="2">
         <v>12.0</v>
       </c>
+      <c r="N60" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O60" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="P60" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="V60" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <f t="shared" si="33"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>37</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D61" s="2">
         <v>9.0</v>
@@ -3982,14 +4361,17 @@
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F61" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G61" s="13">
         <v>0.0</v>
       </c>
       <c r="H61" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="I61" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="J61" s="2">
         <v>3.0</v>
@@ -3998,22 +4380,37 @@
         <v>3.0</v>
       </c>
       <c r="L61" s="2">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="M61" s="2">
-        <v>3.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="N61" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="O61" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="P61" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <f t="shared" si="33"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>35</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2">
         <v>10.0</v>
@@ -4021,6 +4418,9 @@
       <c r="E62" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="F62" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G62" s="13">
         <v>0.0</v>
       </c>
@@ -4031,25 +4431,40 @@
         <v>3.0</v>
       </c>
       <c r="J62" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="K62" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="L62" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M62" s="2">
-        <v>3.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="N62" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="O62" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="P62" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q62" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <f t="shared" si="33"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>33</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2">
         <v>11.0</v>
@@ -4057,6 +4472,9 @@
       <c r="E63" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F63" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G63" s="13">
         <v>0.0</v>
       </c>
@@ -4067,25 +4485,40 @@
         <v>3.0</v>
       </c>
       <c r="J63" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="K63" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="L63" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="M63" s="2">
-        <v>3.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="N63" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="O63" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="P63" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q63" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <f t="shared" si="33"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>32</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2">
         <v>12.0</v>
@@ -4093,14 +4526,17 @@
       <c r="E64" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F64" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G64" s="13">
         <v>0.0</v>
       </c>
       <c r="H64" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="I64" s="2">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="J64" s="2">
         <v>3.0</v>
@@ -4109,19 +4545,34 @@
         <v>3.0</v>
       </c>
       <c r="L64" s="2">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="M64" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="N64" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="O64" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="P64" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q64" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>38</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2">
         <v>13.0</v>
@@ -4129,6 +4580,9 @@
       <c r="E65" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F65" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G65" s="13">
         <v>0.0</v>
       </c>
@@ -4139,10 +4593,10 @@
         <v>8.0</v>
       </c>
       <c r="J65" s="2">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="K65" s="2">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="L65" s="2">
         <v>8.0</v>
@@ -4150,14 +4604,29 @@
       <c r="M65" s="2">
         <v>8.0</v>
       </c>
+      <c r="N65" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="O65" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="P65" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q65" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>45</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2">
         <v>14.0</v>
@@ -4165,35 +4634,53 @@
       <c r="E66" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F66" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G66" s="13">
         <v>0.0</v>
       </c>
       <c r="H66" s="2">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I66" s="2">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="J66" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="K66" s="2">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="L66" s="2">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="M66" s="2">
-        <v>8.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N66" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="O66" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="P66" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q66" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>27</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2">
         <v>15.0</v>
@@ -4201,35 +4688,53 @@
       <c r="E67" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F67" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G67" s="13">
         <v>14.0</v>
       </c>
       <c r="H67" s="2">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="I67" s="2">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="J67" s="2">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="K67" s="2">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="L67" s="2">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="M67" s="2">
-        <v>12.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="N67" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="O67" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="P67" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>42</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D68" s="2">
         <v>16.0</v>
@@ -4244,31 +4749,46 @@
         <v>0.0</v>
       </c>
       <c r="H68" s="2">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I68" s="2">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="J68" s="2">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="K68" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L68" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="M68" s="2">
-        <v>8.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="N68" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="O68" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="P68" s="16">
+        <v>9.0</v>
+      </c>
+      <c r="Q68" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>43</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D69" s="2">
         <v>17.0</v>
@@ -4276,6 +4796,9 @@
       <c r="E69" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F69" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G69" s="13">
         <v>14.0</v>
       </c>
@@ -4283,28 +4806,43 @@
         <v>8.0</v>
       </c>
       <c r="I69" s="2">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="J69" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K69" s="2">
         <v>8.0</v>
       </c>
       <c r="L69" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="M69" s="2">
-        <v>8.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="N69" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O69" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="P69" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q69" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>57</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D70" s="2">
         <v>18.0</v>
@@ -4319,31 +4857,46 @@
         <v>0.0</v>
       </c>
       <c r="H70" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="I70" s="2">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="J70" s="2">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="K70" s="2">
         <v>12.0</v>
       </c>
       <c r="L70" s="2">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M70" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="N70" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O70" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="P70" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>47</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2">
         <v>19.0</v>
@@ -4351,20 +4904,23 @@
       <c r="E71" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F71" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G71" s="13">
         <v>14.0</v>
       </c>
       <c r="H71" s="2">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I71" s="2">
         <v>8.0</v>
       </c>
       <c r="J71" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K71" s="2">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L71" s="2">
         <v>8.0</v>
@@ -4372,14 +4928,29 @@
       <c r="M71" s="2">
         <v>8.0</v>
       </c>
+      <c r="N71" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="O71" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="P71" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q71" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>62</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D72" s="2">
         <v>20.0</v>
@@ -4394,31 +4965,46 @@
         <v>0.0</v>
       </c>
       <c r="H72" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="I72" s="2">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="J72" s="2">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="K72" s="2">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="L72" s="2">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="M72" s="2">
         <v>12.0</v>
       </c>
+      <c r="N72" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="O72" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="P72" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D73" s="2">
         <v>21.0</v>
@@ -4426,6 +5012,9 @@
       <c r="E73" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F73" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G73" s="13">
         <v>14.0</v>
       </c>
@@ -4447,14 +5036,29 @@
       <c r="M73" s="2">
         <v>8.0</v>
       </c>
+      <c r="N73" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="O73" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="P73" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q73" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>71</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D74" s="2">
         <v>22.0</v>
@@ -4472,7 +5076,7 @@
         <v>12.0</v>
       </c>
       <c r="I74" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="J74" s="2">
         <v>12.0</v>
@@ -4484,16 +5088,31 @@
         <v>12.0</v>
       </c>
       <c r="M74" s="2">
-        <v>12.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="N74" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="O74" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="P74" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D75" s="2">
         <v>23.0</v>
@@ -4501,6 +5120,9 @@
       <c r="E75" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F75" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G75" s="13">
         <v>14.0</v>
       </c>
@@ -4522,14 +5144,29 @@
       <c r="M75" s="2">
         <v>8.0</v>
       </c>
+      <c r="N75" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="O75" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P75" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q75" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>71</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D76" s="2">
         <v>24.0</v>
@@ -4550,25 +5187,40 @@
         <v>12.0</v>
       </c>
       <c r="J76" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K76" s="2">
         <v>12.0</v>
       </c>
       <c r="L76" s="2">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="M76" s="2">
         <v>12.0</v>
       </c>
+      <c r="N76" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="O76" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P76" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D77" s="2">
         <v>25.0</v>
@@ -4576,6 +5228,9 @@
       <c r="E77" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F77" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G77" s="13">
         <v>14.0</v>
       </c>
@@ -4597,14 +5252,29 @@
       <c r="M77" s="2">
         <v>8.0</v>
       </c>
+      <c r="N77" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="O77" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="P77" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q77" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>71</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D78" s="2">
         <v>26.0</v>
@@ -4628,22 +5298,37 @@
         <v>12.0</v>
       </c>
       <c r="K78" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L78" s="2">
         <v>12.0</v>
       </c>
       <c r="M78" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N78" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="O78" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="P78" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="Q78" s="13">
         <v>12.0</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D79" s="2">
         <v>27.0</v>
@@ -4651,6 +5336,9 @@
       <c r="E79" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F79" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G79" s="13">
         <v>14.0</v>
       </c>
@@ -4672,14 +5360,29 @@
       <c r="M79" s="2">
         <v>8.0</v>
       </c>
+      <c r="N79" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="O79" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="P79" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="Q79" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
-        <f t="shared" si="33"/>
-        <v>72</v>
+        <f t="shared" si="34"/>
+        <v>60</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2">
         <v>28.0</v>
@@ -4694,31 +5397,46 @@
         <v>0.0</v>
       </c>
       <c r="H80" s="2">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="I80" s="2">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="J80" s="2">
         <v>12.0</v>
       </c>
       <c r="K80" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="L80" s="2">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="M80" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="N80" s="13">
+        <v>16.0</v>
+      </c>
+      <c r="O80" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="P80" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <f t="shared" si="33"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D81" s="2">
         <v>29.0</v>
@@ -4733,31 +5451,47 @@
         <v>0.0</v>
       </c>
       <c r="H81" s="2">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="I81" s="2">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="J81" s="2">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="K81" s="2">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="L81" s="2">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="M81" s="2">
-        <v>8.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="N81" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="O81" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="P81" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>77</v>
       </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D82" s="2">
         <v>30.0</v>
@@ -4789,12 +5523,81 @@
       <c r="M82" s="2">
         <v>14.0</v>
       </c>
+      <c r="N82" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="O82" s="13">
+        <v>17.0</v>
+      </c>
+      <c r="P82" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="83">
-      <c r="B83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="A83">
+        <f t="shared" si="34"/>
+        <v>78</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="N83" s="13">
+        <v>31.0</v>
+      </c>
+      <c r="O83" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="P83" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85">
       <c r="B85" s="2"/>
@@ -4816,1349 +5619,1489 @@
     </row>
     <row r="88">
       <c r="B88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="N88" s="2"/>
     </row>
     <row r="89">
-      <c r="B89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J91" s="2"/>
     </row>
     <row r="92">
       <c r="B92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="C92" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1.0</v>
+      </c>
       <c r="J92" s="2"/>
     </row>
     <row r="93">
       <c r="B93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="C93" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1.0</v>
+      </c>
       <c r="J93" s="2"/>
     </row>
     <row r="94">
       <c r="B94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="C94" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.0</v>
+      </c>
       <c r="J94" s="2"/>
     </row>
     <row r="95">
       <c r="B95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="C95" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.0</v>
+      </c>
       <c r="J95" s="2"/>
     </row>
     <row r="96">
-      <c r="B96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="C96" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="102">
+      <c r="C102" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F102" s="2">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G102" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="H102" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="I102" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2">
         <v>5.0</v>
       </c>
-      <c r="J102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="K102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="L102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="M102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="N102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="O102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="P102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Q102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="R102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="S102" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S103" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G103" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I103" s="13"/>
     </row>
     <row r="104">
-      <c r="A104">
-        <f t="shared" ref="A104:A135" si="34">Sum(J104:O104)</f>
-        <v>24</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="C104" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I105" s="13"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G106" s="2">
         <v>0.0</v>
       </c>
-      <c r="C104" s="2">
-        <f>15*6</f>
+      <c r="I106" s="13"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I108" s="13"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I109" s="13"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I110" s="13"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I111" s="13"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I112" s="13"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="2">
+      <c r="E113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I113" s="13"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G114" s="2">
         <v>0.0</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="J104" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K104" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="L104" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="M104" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="N104" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="O104" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F105" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I105" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="J105" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K105" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L105" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M105" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N105" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O105" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F106" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="I114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I106" s="13">
-        <v>24.0</v>
-      </c>
-      <c r="J106" s="2">
+      <c r="F115" s="2">
         <v>12.0</v>
       </c>
-      <c r="K106" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L106" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M106" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N106" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O106" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <f t="shared" si="34"/>
-        <v>24</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F107" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I107" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="J107" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K107" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="L107" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="M107" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="N107" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="O107" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F108" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I108" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="J108" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K108" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L108" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M108" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N108" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O108" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F109" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I109" s="13">
-        <v>24.0</v>
-      </c>
-      <c r="J109" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K109" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L109" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M109" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N109" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O109" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110">
-        <f t="shared" si="34"/>
-        <v>24</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F110" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="J110" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K110" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="L110" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="M110" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="N110" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="O110" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F111" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="J111" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K111" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L111" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M111" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N111" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O111" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F112" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I112" s="13">
-        <v>24.0</v>
-      </c>
-      <c r="J112" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K112" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L112" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M112" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N112" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O112" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F113" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" s="13">
+      <c r="G115" s="2">
         <v>0.0</v>
       </c>
-      <c r="J113" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="K113" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="L113" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="M113" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="N113" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O113" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F114" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I114" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J114" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="K114" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="L114" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="M114" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="N114" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O114" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F115" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I115" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J115" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="K115" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="L115" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="M115" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="N115" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O115" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="I115" s="13"/>
     </row>
     <row r="116">
-      <c r="A116">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>72</v>
+      <c r="C116" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F116" s="2">
         <v>12.0</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I116" s="13"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I116" s="13">
+      <c r="F117" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I117" s="13"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G118" s="2">
         <v>0.0</v>
       </c>
-      <c r="J116" s="2">
+      <c r="I118" s="13"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I119" s="13"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I120" s="13"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I121" s="13"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I122" s="13"/>
+    </row>
+    <row r="123">
+      <c r="E123" s="5"/>
+      <c r="I123" s="13"/>
+    </row>
+    <row r="124">
+      <c r="E124" s="5"/>
+      <c r="I124" s="13"/>
+    </row>
+    <row r="125">
+      <c r="E125" s="5"/>
+      <c r="I125" s="13"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="I126" s="13"/>
+    </row>
+    <row r="127" ht="18.75" customHeight="1">
+      <c r="B127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E128" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F128" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G128" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="5"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E129" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F129" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="G129" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I129" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="5"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="2">
         <v>2.0</v>
       </c>
-      <c r="K116" s="2">
+      <c r="C130" s="2">
         <v>2.0</v>
       </c>
-      <c r="L116" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="M116" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="N116" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O116" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F117" s="2">
+      <c r="D130" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E130" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F130" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I130" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J130" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="5"/>
+      <c r="X130" s="5"/>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="5"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C131" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E131" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F131" s="2">
         <v>13.0</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I117" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J117" s="2">
+      <c r="G131" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F132" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I132" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="5"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C133" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D133" s="2">
         <v>8.0</v>
       </c>
-      <c r="K117" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L117" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M117" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N117" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O117" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F118" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I118" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J118" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K118" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L118" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M118" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N118" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O118" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F119" s="2">
+      <c r="E133" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F133" s="2">
         <v>15.0</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I119" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="J119" s="2">
+      <c r="G133" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
+      <c r="AE133" s="5"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C134" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E134" s="2">
         <v>12.0</v>
       </c>
-      <c r="K119" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L119" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M119" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N119" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O119" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F120" s="2">
+      <c r="F134" s="2">
         <v>16.0</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I120" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J120" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K120" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L120" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M120" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N120" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O120" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F121" s="2">
+      <c r="G134" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I134" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F135" s="2">
         <v>17.0</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I121" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="J121" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K121" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L121" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M121" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N121" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O121" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F122" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I122" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J122" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K122" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L122" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M122" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N122" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O122" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F123" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I123" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="J123" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K123" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L123" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M123" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N123" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O123" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F124" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I124" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J124" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K124" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L124" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M124" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N124" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O124" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F125" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I125" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="J125" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K125" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L125" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M125" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N125" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O125" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F126" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I126" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J126" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K126" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L126" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M126" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N126" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O126" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F127" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I127" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="J127" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K127" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L127" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M127" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N127" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O127" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F128" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I128" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J128" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K128" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L128" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M128" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N128" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O128" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F129" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I129" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="J129" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K129" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L129" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M129" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N129" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O129" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F130" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I130" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J130" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K130" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L130" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M130" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N130" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O130" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F131" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I131" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="J131" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K131" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L131" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M131" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N131" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O131" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <f t="shared" si="34"/>
-        <v>72</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F132" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I132" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J132" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K132" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="L132" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="M132" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N132" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O132" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F133" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J133" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K133" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="L133" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="M133" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="N133" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O133" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <f t="shared" si="34"/>
-        <v>77</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F134" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I134" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J134" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="K134" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="L134" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="M134" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="N134" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="O134" s="2">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <f t="shared" si="34"/>
-        <v>78</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F135" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I135" s="13">
-        <v>0.0</v>
+      <c r="G135" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I135" s="2">
+        <v>3.0</v>
       </c>
       <c r="J135" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="K135" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="L135" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="M135" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="N135" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="O135" s="2">
-        <v>14.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+      <c r="AE135" s="5"/>
+    </row>
+    <row r="136">
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+    </row>
+    <row r="137">
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+    </row>
+    <row r="138">
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+      <c r="W138" s="5"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
+      <c r="AE138" s="5"/>
+    </row>
+    <row r="139">
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+      <c r="W139" s="5"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+      <c r="AE139" s="5"/>
+    </row>
+    <row r="140">
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
+      <c r="W140" s="5"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+      <c r="AB140" s="5"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
+      <c r="AE140" s="5"/>
     </row>
     <row r="141">
-      <c r="H141" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+      <c r="AE141" s="5"/>
+    </row>
+    <row r="142">
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+    </row>
+    <row r="143">
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+    </row>
+    <row r="144">
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+    </row>
+    <row r="145">
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+    </row>
+    <row r="146">
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+    </row>
+    <row r="147">
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+    </row>
+    <row r="148">
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+    </row>
+    <row r="149">
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+    </row>
+    <row r="150">
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+    </row>
+    <row r="151">
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+    </row>
+    <row r="152">
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+    </row>
+    <row r="153">
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+    </row>
+    <row r="154">
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="5"/>
+      <c r="AE154" s="5"/>
+    </row>
+    <row r="155">
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="5"/>
+      <c r="AE155" s="5"/>
+    </row>
+    <row r="156">
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="5"/>
+      <c r="AE156" s="5"/>
+    </row>
+    <row r="157">
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5"/>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="5"/>
+      <c r="AE157" s="5"/>
+    </row>
+    <row r="158">
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5"/>
+      <c r="W158" s="5"/>
+      <c r="X158" s="5"/>
+      <c r="Y158" s="5"/>
+      <c r="Z158" s="5"/>
+      <c r="AA158" s="5"/>
+      <c r="AB158" s="5"/>
+      <c r="AC158" s="5"/>
+      <c r="AD158" s="5"/>
+      <c r="AE158" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D39:K46">
@@ -6181,91 +7124,91 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z999">
+  <conditionalFormatting sqref="A1:AH998">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Normal">
       <formula>NOT(ISERROR(SEARCH(("Normal"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z999">
+  <conditionalFormatting sqref="A1:AH998">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="lightning">
       <formula>NOT(ISERROR(SEARCH(("lightning"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z999">
+  <conditionalFormatting sqref="A1:AH998">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Earth">
       <formula>NOT(ISERROR(SEARCH(("Earth"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z999">
+  <conditionalFormatting sqref="A1:AH998">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Wind">
       <formula>NOT(ISERROR(SEARCH(("Wind"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z999">
+  <conditionalFormatting sqref="A1:AH998">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Fire">
       <formula>NOT(ISERROR(SEARCH(("Fire"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z999">
+  <conditionalFormatting sqref="A1:AH998">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Water">
       <formula>NOT(ISERROR(SEARCH(("Water"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z999">
+  <conditionalFormatting sqref="A1:AH998">
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="plant">
       <formula>NOT(ISERROR(SEARCH(("plant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z999">
+  <conditionalFormatting sqref="A1:AH998">
     <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Spirit">
       <formula>NOT(ISERROR(SEARCH(("Spirit"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A82 A104:A137">
+  <conditionalFormatting sqref="A50:A83 A103:A136">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A82 A104:A137">
+  <conditionalFormatting sqref="A50:A83 A103:A136">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
       <formula>23</formula>
       <formula>46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A82 A104:A137">
+  <conditionalFormatting sqref="A50:A83 A103:A136">
     <cfRule type="cellIs" dxfId="5" priority="15" operator="between">
       <formula>46</formula>
       <formula>69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A82 A104:A137">
+  <conditionalFormatting sqref="A50:A83 A103:A136">
     <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
       <formula>69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z473">
+  <conditionalFormatting sqref="A1:AH472">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="elder">
       <formula>NOT(ISERROR(SEARCH(("elder"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:O82 J104:O136">
+  <conditionalFormatting sqref="H50:M83 N50:O82 P52:Q82 J103:J136 K103:O135">
     <cfRule type="cellIs" dxfId="12" priority="18" operator="lessThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:O82 J104:O136">
+  <conditionalFormatting sqref="H50:M83 N50:O82 P52:Q82 J103:J136 K103:O135">
     <cfRule type="cellIs" dxfId="13" priority="19" operator="between">
       <formula>4</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:O82 J104:O136">
+  <conditionalFormatting sqref="H50:M83 N50:O82 P52:Q82 J103:J136 K103:O135">
     <cfRule type="cellIs" dxfId="14" priority="20" operator="between">
       <formula>8</formula>
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:O82 J104:O136">
+  <conditionalFormatting sqref="H50:M83 N50:O82 P52:Q82 J103:J136 K103:O135">
     <cfRule type="cellIs" dxfId="15" priority="21" operator="between">
       <formula>12</formula>
       <formula>16</formula>
@@ -6299,6 +7242,43 @@
       <formula>176</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G90:G121">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90:G121">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F121">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F121">
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="between">
+      <formula>4</formula>
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F121">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="between">
+      <formula>8</formula>
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F121">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="greaterThanOrEqual">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52:Q83">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="32">
+      <formula>NOT(ISERROR(SEARCH(("32"),(N52))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6314,146 +7294,146 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>93</v>
+      <c r="B1" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="E1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="14"/>
+      <c r="E1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="17"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
-        <v>96</v>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>98</v>
+      <c r="A2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>98</v>
+      <c r="A3" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>98</v>
+      <c r="A4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>98</v>
+      <c r="A5" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>98</v>
+      <c r="A6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
@@ -6476,86 +7456,86 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>107</v>
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>160</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>109</v>
+      <c r="E9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>109</v>
+      <c r="I9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>112</v>
+      <c r="M9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="A10" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="33">
         <v>120.0</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="29" t="s">
-        <v>97</v>
+      <c r="E10" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="F10" s="8">
         <v>70.0</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="29" t="s">
-        <v>97</v>
+      <c r="I10" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="J10" s="8">
         <v>100.0</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="29" t="s">
-        <v>97</v>
+      <c r="M10" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="N10" s="8">
         <v>100.0</v>
@@ -6564,34 +7544,34 @@
       <c r="P10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="A11" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="33">
         <v>90.0</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="29" t="s">
-        <v>99</v>
+      <c r="E11" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="F11" s="8">
         <v>100.0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="29" t="s">
-        <v>99</v>
+      <c r="I11" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="J11" s="8">
         <v>70.0</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="29" t="s">
-        <v>99</v>
+      <c r="M11" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="N11" s="8">
         <v>110.0</v>
@@ -6600,32 +7580,32 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="A12" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="33">
         <v>90.0</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="29" t="s">
-        <v>101</v>
+      <c r="E12" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="F12" s="8">
         <v>60.0</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="29" t="s">
-        <v>101</v>
+      <c r="I12" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="J12" s="8">
         <v>70.0</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="29" t="s">
-        <v>101</v>
+      <c r="M12" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="N12" s="8">
         <v>90.0</v>
@@ -6634,32 +7614,32 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="30">
+      <c r="A13" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="33">
         <v>90.0</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="29" t="s">
-        <v>103</v>
+      <c r="E13" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="F13" s="8">
         <v>100.0</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="29" t="s">
-        <v>103</v>
+      <c r="I13" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="J13" s="8">
         <v>110.0</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="29" t="s">
-        <v>103</v>
+      <c r="M13" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="N13" s="8">
         <v>60.0</v>
@@ -6668,580 +7648,580 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="30">
+      <c r="A14" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="33">
         <v>100.0</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="33">
         <f>SUM(B9:B14)</f>
         <v>490</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="30">
+      <c r="E14" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="33">
         <v>60.0</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="33">
         <f>SUM(F9:F14)</f>
         <v>390</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="30">
+      <c r="I14" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="33">
         <v>110.0</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="33">
         <f>SUM(J9:J14)</f>
         <v>460</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="30">
+      <c r="M14" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="33">
         <v>90.0</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="33">
         <f>SUM(N9:N14)</f>
         <v>450</v>
       </c>
       <c r="P14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>115</v>
+      <c r="A16" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>117</v>
+      <c r="E16" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>119</v>
+      <c r="I16" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>115</v>
+      <c r="M16" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="14"/>
+      <c r="A17" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="17"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="29" t="s">
-        <v>97</v>
+      <c r="E17" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="F17" s="8">
         <v>70.0</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="29" t="s">
-        <v>97</v>
+      <c r="I17" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="J17" s="8">
         <v>90.0</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="30">
+      <c r="M17" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="33">
         <v>80.0</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="14"/>
+      <c r="A18" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="17"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="29" t="s">
-        <v>99</v>
+      <c r="E18" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="F18" s="8">
         <v>110.0</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="29" t="s">
-        <v>99</v>
+      <c r="I18" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="J18" s="8">
         <v>120.0</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="30">
+      <c r="M18" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="N18" s="33">
         <v>110.0</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="14"/>
+      <c r="A19" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="29" t="s">
-        <v>101</v>
+      <c r="E19" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="F19" s="8">
         <v>60.0</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="29" t="s">
-        <v>101</v>
+      <c r="I19" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="J19" s="8">
         <v>90.0</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" s="30">
+      <c r="M19" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="N19" s="33">
         <v>80.0</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="14"/>
+      <c r="A20" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="29" t="s">
-        <v>103</v>
+      <c r="E20" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="F20" s="8">
         <v>110.0</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="29" t="s">
-        <v>103</v>
+      <c r="I20" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="J20" s="8">
         <v>60.0</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="N20" s="30">
+      <c r="M20" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="33">
         <v>80.0</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="31" t="s">
-        <v>104</v>
+      <c r="A21" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="30">
+      <c r="E21" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="33">
         <v>90.0</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="33">
         <f>SUM(F16:F21)</f>
         <v>440</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="30">
+      <c r="I21" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="33">
         <v>80.0</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="33">
         <f>SUM(J16:J21)</f>
         <v>440</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21" s="30">
+      <c r="M21" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="33">
         <v>130.0</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="33">
         <f>SUM(N16:N21)</f>
         <v>480</v>
       </c>
       <c r="P21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>117</v>
+      <c r="A23" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>112</v>
+      <c r="E23" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>119</v>
+      <c r="I23" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>107</v>
+      <c r="M23" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="29" t="s">
-        <v>97</v>
+      <c r="A24" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="B24" s="8">
         <v>80.0</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="29" t="s">
-        <v>97</v>
+      <c r="E24" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="F24" s="8">
         <v>100.0</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="29" t="s">
-        <v>97</v>
+      <c r="I24" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="J24" s="8">
         <v>100.0</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" s="14"/>
+      <c r="M24" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="N24" s="17"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="29" t="s">
-        <v>99</v>
+      <c r="A25" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="B25" s="8">
         <v>120.0</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="29" t="s">
-        <v>99</v>
+      <c r="E25" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="F25" s="8">
         <v>130.0</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="29" t="s">
-        <v>99</v>
+      <c r="I25" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="J25" s="8">
         <v>100.0</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="N25" s="14"/>
+      <c r="M25" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="N25" s="17"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="29" t="s">
-        <v>101</v>
+      <c r="A26" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="B26" s="8">
         <v>80.0</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="29" t="s">
-        <v>101</v>
+      <c r="E26" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="F26" s="8">
         <v>90.0</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="29" t="s">
-        <v>101</v>
+      <c r="I26" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="J26" s="8">
         <v>100.0</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="N26" s="14"/>
+      <c r="M26" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="N26" s="17"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="29" t="s">
-        <v>103</v>
+      <c r="A27" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="B27" s="8">
         <v>70.0</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="29" t="s">
-        <v>103</v>
+      <c r="E27" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="F27" s="8">
         <v>60.0</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="29" t="s">
-        <v>103</v>
+      <c r="I27" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="8">
         <v>60.0</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" s="14"/>
+      <c r="M27" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="17"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="30">
+      <c r="A28" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="33">
         <v>90.0</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="33">
         <f>SUM(B23:B28)</f>
         <v>440</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="30">
+      <c r="E28" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="33">
         <v>60.0</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="33">
         <f>SUM(F23:F28)</f>
         <v>440</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="30">
+      <c r="I28" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="33">
         <v>60.0</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="33">
         <f>SUM(J23:J28)</f>
         <v>420</v>
       </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="31" t="s">
-        <v>104</v>
+      <c r="M28" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
       <c r="P29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>127</v>
+      <c r="A30" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>180</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>124</v>
+      <c r="E30" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>177</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>109</v>
+      <c r="I30" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>117</v>
+      <c r="M30" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="N30" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="30">
+      <c r="A31" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="33">
         <v>110.0</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="30">
+      <c r="E31" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="33">
         <v>70.0</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="30">
+      <c r="I31" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" s="33">
         <v>130.0</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="29" t="s">
-        <v>97</v>
+      <c r="M31" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="N31" s="8">
         <v>130.0</v>
@@ -7250,32 +8230,32 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="30">
+      <c r="A32" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="33">
         <v>110.0</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="30">
+      <c r="E32" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="33">
         <v>120.0</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="J32" s="30">
+      <c r="I32" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" s="33">
         <v>70.0</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="29" t="s">
-        <v>99</v>
+      <c r="M32" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="N32" s="8">
         <v>70.0</v>
@@ -7284,32 +8264,32 @@
       <c r="P32" s="6"/>
     </row>
     <row r="33">
-      <c r="A33" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="30">
+      <c r="A33" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="33">
         <v>80.0</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="30">
+      <c r="E33" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="33">
         <v>70.0</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="30">
+      <c r="I33" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" s="33">
         <v>120.0</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="29" t="s">
-        <v>101</v>
+      <c r="M33" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="N33" s="8">
         <v>90.0</v>
@@ -7318,32 +8298,32 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="30">
+      <c r="A34" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="33">
         <v>110.0</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="30">
+      <c r="E34" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="33">
         <v>60.0</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="30">
+      <c r="I34" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="33">
         <v>80.0</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="29" t="s">
-        <v>103</v>
+      <c r="M34" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="N34" s="8">
         <v>110.0</v>
@@ -7352,485 +8332,485 @@
       <c r="P34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="30">
+      <c r="A35" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="33">
         <v>60.0</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="33">
         <f>SUM(B30:B35)</f>
         <v>470</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="30">
+      <c r="E35" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="33">
         <v>110.0</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="33">
         <f>SUM(F30:F35)</f>
         <v>430</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="30">
+      <c r="I35" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="33">
         <v>50.0</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="33">
         <f>SUM(J30:J35)</f>
         <v>450</v>
       </c>
       <c r="L35" s="6"/>
-      <c r="M35" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="N35" s="30">
+      <c r="M35" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N35" s="33">
         <v>50.0</v>
       </c>
-      <c r="O35" s="30">
+      <c r="O35" s="33">
         <f>SUM(N30:N35)</f>
         <v>450</v>
       </c>
       <c r="P35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
       <c r="P36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>115</v>
+      <c r="A37" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>109</v>
+      <c r="E37" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>134</v>
+      <c r="I37" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N37" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="O37" s="33" t="s">
-        <v>119</v>
+      <c r="M37" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N37" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="P37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="29" t="s">
-        <v>97</v>
+      <c r="A38" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="14"/>
+      <c r="E38" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="17"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="J38" s="14"/>
+      <c r="I38" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="17"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="N38" s="30">
+      <c r="M38" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="N38" s="33">
         <v>60.0</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="29" t="s">
-        <v>99</v>
+      <c r="A39" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="14"/>
+      <c r="E39" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="17"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="14"/>
+      <c r="I39" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="17"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="N39" s="30">
+      <c r="M39" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="N39" s="33">
         <v>120.0</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="29" t="s">
-        <v>101</v>
+      <c r="A40" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="14"/>
+      <c r="E40" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="17"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="14"/>
+      <c r="I40" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="17"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="N40" s="30">
+      <c r="M40" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="N40" s="33">
         <v>60.0</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="29" t="s">
-        <v>103</v>
+      <c r="A41" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="14"/>
+      <c r="E41" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="17"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="14"/>
+      <c r="I41" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J41" s="17"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="N41" s="30">
+      <c r="M41" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="N41" s="33">
         <v>120.0</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="31" t="s">
-        <v>104</v>
+      <c r="A42" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="30">
+      <c r="C42" s="33">
         <f>SUM(B37:B42)</f>
         <v>0</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="31" t="s">
-        <v>104</v>
+      <c r="E42" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="30">
+      <c r="G42" s="33">
         <f>SUM(F37:F42)</f>
         <v>0</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="31" t="s">
-        <v>104</v>
+      <c r="I42" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="J42" s="6"/>
-      <c r="K42" s="30">
+      <c r="K42" s="33">
         <f>SUM(J37:J42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="6"/>
-      <c r="M42" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="N42" s="30">
+      <c r="M42" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N42" s="33">
         <v>100.0</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="33">
         <f>SUM(N37:N42)</f>
         <v>460</v>
       </c>
       <c r="P42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>107</v>
+      <c r="A44" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>115</v>
+      <c r="E44" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>139</v>
+      <c r="I44" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="N44" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O44" s="37" t="s">
-        <v>117</v>
+      <c r="M44" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="O44" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="P44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="14"/>
+      <c r="A45" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="17"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="29" t="s">
-        <v>97</v>
+      <c r="E45" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="F45" s="8">
         <v>60.0</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="29" t="s">
-        <v>97</v>
+      <c r="I45" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="J45" s="8">
         <v>110.0</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="29" t="s">
-        <v>97</v>
+      <c r="M45" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="14"/>
+      <c r="A46" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="17"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="29" t="s">
-        <v>99</v>
+      <c r="E46" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="F46" s="8">
         <v>100.0</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="29" t="s">
-        <v>99</v>
+      <c r="I46" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="J46" s="8">
         <v>50.0</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="29" t="s">
-        <v>99</v>
+      <c r="M46" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="N46" s="6"/>
-      <c r="O46" s="14"/>
+      <c r="O46" s="17"/>
       <c r="P46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="14"/>
+      <c r="A47" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="17"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="29" t="s">
-        <v>101</v>
+      <c r="E47" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="F47" s="8">
         <v>80.0</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="29" t="s">
-        <v>101</v>
+      <c r="I47" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="J47" s="8">
         <v>120.0</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="29" t="s">
-        <v>101</v>
+      <c r="M47" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="14"/>
+      <c r="A48" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="17"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="29" t="s">
-        <v>103</v>
+      <c r="E48" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="F48" s="8">
         <v>80.0</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="29" t="s">
-        <v>103</v>
+      <c r="I48" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="J48" s="8">
         <v>100.0</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="29" t="s">
-        <v>103</v>
+      <c r="M48" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="31" t="s">
-        <v>104</v>
+      <c r="A49" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="30">
+      <c r="C49" s="33">
         <f>SUM(B44:B49)</f>
         <v>0</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="30">
+      <c r="E49" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="33">
         <v>130.0</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="33">
         <f>SUM(F44:F49)</f>
         <v>450</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J49" s="30">
+      <c r="I49" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" s="33">
         <v>60.0</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="33">
         <f>SUM(J44:J49)</f>
         <v>440</v>
       </c>
       <c r="L49" s="6"/>
-      <c r="M49" s="31" t="s">
-        <v>104</v>
+      <c r="M49" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="N49" s="6"/>
-      <c r="O49" s="30">
+      <c r="O49" s="33">
         <f>SUM(N44:N49)</f>
         <v>0</v>
       </c>
       <c r="P49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -7838,210 +8818,210 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>127</v>
+      <c r="A51" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>124</v>
+      <c r="E51" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>177</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J51" s="33" t="s">
-        <v>119</v>
+      <c r="I51" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N51" s="28" t="s">
-        <v>109</v>
+        <v>198</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="29" t="s">
-        <v>97</v>
+      <c r="A52" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="B52" s="8">
         <v>70.0</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="30">
+      <c r="E52" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="33">
         <v>130.0</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="J52" s="30">
+      <c r="I52" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" s="33">
         <v>70.0</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="31" t="s">
-        <v>97</v>
+      <c r="M52" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
     <row r="53">
-      <c r="A53" s="29" t="s">
-        <v>99</v>
+      <c r="A53" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="B53" s="8">
         <v>60.0</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="30">
+      <c r="E53" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="33">
         <v>90.0</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="J53" s="30">
+      <c r="I53" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" s="33">
         <v>60.0</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="31" t="s">
-        <v>99</v>
+      <c r="M53" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
     <row r="54">
-      <c r="A54" s="29" t="s">
-        <v>101</v>
+      <c r="A54" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="B54" s="8">
         <v>60.0</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="30">
+      <c r="E54" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="33">
         <v>120.0</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="J54" s="30">
+      <c r="I54" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" s="33">
         <v>60.0</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="31" t="s">
-        <v>101</v>
+      <c r="M54" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="6" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="P54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="29" t="s">
-        <v>103</v>
+      <c r="A55" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="B55" s="8">
         <v>130.0</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="30">
+      <c r="E55" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="33">
         <v>50.0</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J55" s="30">
+      <c r="I55" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J55" s="33">
         <v>130.0</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="31" t="s">
-        <v>103</v>
+      <c r="M55" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="30">
+      <c r="A56" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="33">
         <v>100.0</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="33">
         <f>SUM(B51:B56)</f>
         <v>420</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="E56" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="30">
+      <c r="E56" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="33">
         <v>50.0</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="33">
         <f>SUM(F51:F56)</f>
         <v>440</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J56" s="30">
+      <c r="I56" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" s="33">
         <v>120.0</v>
       </c>
-      <c r="K56" s="30">
+      <c r="K56" s="33">
         <f>SUM(J51:J56)</f>
         <v>440</v>
       </c>
       <c r="L56" s="6"/>
-      <c r="M56" s="31" t="s">
-        <v>104</v>
+      <c r="M56" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="N56" s="6"/>
-      <c r="O56" s="30">
+      <c r="O56" s="33">
         <f>SUM(N51:N56)</f>
         <v>0</v>
       </c>
@@ -8067,31 +9047,31 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>115</v>
+        <v>200</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>107</v>
+        <v>202</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>160</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J58" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="K58" s="28" t="s">
-        <v>109</v>
+        <v>203</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -8100,22 +9080,22 @@
       <c r="P58" s="6"/>
     </row>
     <row r="59">
-      <c r="A59" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="30">
+      <c r="A59" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="33">
         <v>100.0</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="31" t="s">
-        <v>97</v>
+      <c r="E59" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="31" t="s">
-        <v>97</v>
+      <c r="I59" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -8126,22 +9106,22 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="30">
+      <c r="A60" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="33">
         <v>100.0</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="31" t="s">
-        <v>99</v>
+      <c r="E60" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="31" t="s">
-        <v>99</v>
+      <c r="I60" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -8152,22 +9132,22 @@
       <c r="P60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="30">
+      <c r="A61" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="33">
         <v>60.0</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="31" t="s">
-        <v>101</v>
+      <c r="E61" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="31" t="s">
-        <v>101</v>
+      <c r="I61" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -8178,22 +9158,22 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62">
-      <c r="A62" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="30">
+      <c r="A62" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="33">
         <v>70.0</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="31" t="s">
-        <v>103</v>
+      <c r="E62" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="31" t="s">
-        <v>103</v>
+      <c r="I62" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -8204,31 +9184,31 @@
       <c r="P62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="30">
+      <c r="A63" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="33">
         <v>100.0</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="33">
         <f>SUM(B58:B63)</f>
         <v>430</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="31" t="s">
-        <v>104</v>
+      <c r="E63" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="30">
+      <c r="G63" s="33">
         <f>SUM(F58:F63)</f>
         <v>0</v>
       </c>
       <c r="H63" s="6"/>
-      <c r="I63" s="31" t="s">
-        <v>104</v>
+      <c r="I63" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="J63" s="6"/>
-      <c r="K63" s="30">
+      <c r="K63" s="33">
         <f>SUM(J58:J63)</f>
         <v>0</v>
       </c>
